--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/sprint_3_backlog_actividades_horas.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/sprint_3_backlog_actividades_horas.xlsx
@@ -105,7 +105,7 @@
     <t>TK-48</t>
   </si>
   <si>
-    <t>Función e interfaz de inicar ruta</t>
+    <t>Función e interfaz de iniciar ruta</t>
   </si>
   <si>
     <t>TK-49</t>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -155,6 +155,11 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -197,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -231,11 +236,14 @@
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -486,7 +494,7 @@
       <c r="B4" s="6"/>
       <c r="C4" s="7">
         <f>SUM(D7:D29)</f>
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" ht="27.0" customHeight="1">
@@ -519,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="15">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8" ht="27.0" customHeight="1">
@@ -603,7 +611,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="15">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14" ht="27.0" customHeight="1">
@@ -641,11 +649,11 @@
       <c r="B16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="15">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="17" ht="27.0" customHeight="1">
@@ -659,11 +667,11 @@
         <v>31</v>
       </c>
       <c r="D17" s="15">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="C18" s="17"/>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1"/>
